--- a/DB.xlsx
+++ b/DB.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:AX61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U43" sqref="U43"/>
@@ -442,11 +442,221 @@
           <t>29-05-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>06-06-2021</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1JT17CS001</t>
+          <t>1jt17cs052</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,6 +690,216 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -488,7 +908,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1JT17CS002</t>
+          <t>1JT17CS053</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,13 +944,223 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1JT17CS003</t>
+          <t>1jt17cs050</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,6 +1194,216 @@
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -572,7 +1412,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1JT17CS004</t>
+          <t>1jt17cs049</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,6 +1448,216 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX61"/>
+  <dimension ref="A1:CL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U43" sqref="U43"/>
@@ -652,6 +652,206 @@
           <t>07-06-2021</t>
         </is>
       </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>07-06-2021</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>10-06-2021</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>10-06-2021</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>10-06-2021</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>10-06-2021</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>10-06-2021</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>10-06-2021</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>11-06-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -904,6 +1104,206 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1556,206 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1408,6 +2008,206 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1656,6 +2456,206 @@
         </is>
       </c>
       <c r="AX5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,13 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,37 +411,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>02-07-2021</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>02-07-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1JT17CS053</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1JT17CS050</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1JT17CS049</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1JT17CS052</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>02-07-2021</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>02-07-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1JT17CS053</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1JT17CS050</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1JT17CS049</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1JT17CS052</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>02-07-2021</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>02-07-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1JT17CS053</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1JT17CS050</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1JT17CS049</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1JT17CS052</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,46 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +497,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +554,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -491,6 +611,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,6 +666,140 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -520,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +838,46 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -561,6 +895,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,6 +952,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,6 +1009,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -610,6 +1064,140 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -624,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +1236,46 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -665,6 +1293,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -682,6 +1350,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -699,6 +1407,46 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -714,6 +1462,140 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,16 @@
           <t>07-07-2021</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -537,6 +547,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -594,6 +614,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -651,6 +681,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -708,6 +748,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -755,6 +805,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -800,6 +860,16 @@
       <c r="K7" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -814,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,6 +948,16 @@
           <t>07-07-2021</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +1015,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -992,6 +1082,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1049,6 +1149,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1106,6 +1216,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1153,6 +1273,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1198,6 +1328,16 @@
       <c r="K7" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,6 +1416,16 @@
           <t>07-07-2021</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1333,6 +1483,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1390,6 +1550,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1447,6 +1617,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1504,6 +1684,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1551,6 +1741,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1596,6 +1796,16 @@
       <c r="K7" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,41 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +492,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +544,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -491,6 +596,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,6 +646,2435 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1JT17CS003</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1JT17CS004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1JT17CS005</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1JT17CS006</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1JT17CS007</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1JT17CS008</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1JT17CS009</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1JT17CS010</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1JT17CS011</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1JT17CS012</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1JT17CS013</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1JT17CS014</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1JT17CS015</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1JT17CS016</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1JT17CS017</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1JT17CS018</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1JT17CS019</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1JT17CS020</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1JT17CS021</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1JT17CS022</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1JT17CS023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1JT17CS024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1JT17CS025</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1JT17CS026</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1JT17CS027</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1JT17CS028</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1JT17CS029</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1JT17CS030</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1JT17CS031</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1JT17CS032</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1JT17CS033</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1JT17CS034</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1JT17CS035</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1JT17CS036</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1JT17CS037</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1JT17CS038</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1JT17CS039</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1JT17CS040</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1JT17CS041</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1JT17CS042</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1JT17CS043</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1JT17CS044</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1JT17CS045</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1JT17CS046</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1JT17CS047</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1JT17CS048</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1JT17CS051</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1JT17CS054</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1JT17CS055</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1JT17CS056</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1JT17CS057</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1JT17CS059</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1JT16CS016</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1JT16CS031</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -520,7 +3089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +3113,41 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -561,6 +3165,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,6 +3217,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,6 +3269,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -610,6 +3319,2435 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1JT17CS003</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1JT17CS004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1JT17CS005</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1JT17CS006</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1JT17CS007</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1JT17CS008</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1JT17CS009</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1JT17CS010</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1JT17CS011</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1JT17CS012</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1JT17CS013</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1JT17CS014</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1JT17CS015</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1JT17CS016</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1JT17CS017</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1JT17CS018</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1JT17CS019</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1JT17CS020</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1JT17CS021</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1JT17CS022</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1JT17CS023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1JT17CS024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1JT17CS025</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1JT17CS026</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1JT17CS027</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1JT17CS028</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1JT17CS029</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1JT17CS030</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1JT17CS031</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1JT17CS032</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1JT17CS033</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1JT17CS034</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1JT17CS035</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1JT17CS036</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1JT17CS037</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1JT17CS038</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1JT17CS039</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1JT17CS040</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1JT17CS041</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1JT17CS042</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1JT17CS043</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1JT17CS044</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1JT17CS045</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1JT17CS046</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1JT17CS047</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1JT17CS048</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1JT17CS051</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1JT17CS054</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1JT17CS055</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1JT17CS056</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1JT17CS057</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1JT17CS059</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1JT16CS016</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1JT16CS031</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -624,7 +5762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +5786,41 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -665,6 +5838,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -682,6 +5890,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -699,6 +5942,41 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -714,6 +5992,2435 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1JT17CS003</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1JT17CS004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1JT17CS005</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1JT17CS006</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1JT17CS007</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1JT17CS008</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1JT17CS009</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1JT17CS010</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1JT17CS011</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1JT17CS012</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1JT17CS013</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1JT17CS014</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1JT17CS015</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1JT17CS016</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1JT17CS017</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1JT17CS018</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1JT17CS019</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1JT17CS020</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1JT17CS021</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1JT17CS022</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1JT17CS023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1JT17CS024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1JT17CS025</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1JT17CS026</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1JT17CS027</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1JT17CS028</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1JT17CS029</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1JT17CS030</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1JT17CS031</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1JT17CS032</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1JT17CS033</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1JT17CS034</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1JT17CS035</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1JT17CS036</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1JT17CS037</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1JT17CS038</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1JT17CS039</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1JT17CS040</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1JT17CS041</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1JT17CS042</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1JT17CS043</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1JT17CS044</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1JT17CS045</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1JT17CS046</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1JT17CS047</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1JT17CS048</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1JT17CS051</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1JT17CS054</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1JT17CS055</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1JT17CS056</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1JT17CS057</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1JT17CS059</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1JT16CS016</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1JT16CS031</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
